--- a/artfynd/A 7444-2023.xlsx
+++ b/artfynd/A 7444-2023.xlsx
@@ -2158,10 +2158,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111424406</v>
+        <v>111424396</v>
       </c>
       <c r="B13" t="n">
-        <v>90151</v>
+        <v>89816</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2170,25 +2170,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>366</v>
+        <v>1619</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Apelticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Aurantiporus fissilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Berk. &amp; M.A.Curtis) H.Jahn ex Ryvarden</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2247,6 +2247,11 @@
           <t>14:43</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2 fruktkroppar på två träd ett stående dött träd och en låga.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2255,6 +2260,21 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2271,10 +2291,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111424396</v>
+        <v>111424406</v>
       </c>
       <c r="B14" t="n">
-        <v>89816</v>
+        <v>90151</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2283,25 +2303,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1619</v>
+        <v>366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Apelticka</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Aurantiporus fissilis</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis) H.Jahn ex Ryvarden</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2360,11 +2380,6 @@
           <t>14:43</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>2 fruktkroppar på två träd ett stående dött träd och en låga.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2373,21 +2388,6 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">

--- a/artfynd/A 7444-2023.xlsx
+++ b/artfynd/A 7444-2023.xlsx
@@ -2158,10 +2158,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111424396</v>
+        <v>111424406</v>
       </c>
       <c r="B13" t="n">
-        <v>89816</v>
+        <v>90151</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2170,25 +2170,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1619</v>
+        <v>366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Apelticka</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Aurantiporus fissilis</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis) H.Jahn ex Ryvarden</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2247,11 +2247,6 @@
           <t>14:43</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2 fruktkroppar på två träd ett stående dött träd och en låga.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2260,21 +2255,6 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2291,10 +2271,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111424406</v>
+        <v>111424396</v>
       </c>
       <c r="B14" t="n">
-        <v>90151</v>
+        <v>89816</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2303,25 +2283,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>366</v>
+        <v>1619</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Apelticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Aurantiporus fissilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Berk. &amp; M.A.Curtis) H.Jahn ex Ryvarden</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2380,6 +2360,11 @@
           <t>14:43</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2 fruktkroppar på två träd ett stående dött träd och en låga.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2388,6 +2373,21 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
